--- a/src/test/resources/TestData/TestData.xlsx
+++ b/src/test/resources/TestData/TestData.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="validateAPIWithValidSecretKey" sheetId="1" r:id="rId1"/>
     <sheet name="validateAPIWithInvalidSecretKey" sheetId="2" r:id="rId2"/>
-    <sheet name="validateAPIWithValidParameters" sheetId="3" r:id="rId3"/>
+    <sheet name="validateCreateUserWithValidData" sheetId="4" r:id="rId3"/>
+    <sheet name="validateAPIWithValidParameters" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>email</t>
   </si>
@@ -47,6 +48,21 @@
   </si>
   <si>
     <t>Test User as been created</t>
+  </si>
+  <si>
+    <t>Test User is not created</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>Manju</t>
+  </si>
+  <si>
+    <t>TestAutomation</t>
   </si>
 </sst>
 </file>
@@ -377,8 +393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -440,19 +456,104 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.7265625" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="14.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/test/resources/TestData/TestData.xlsx
+++ b/src/test/resources/TestData/TestData.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
   </bookViews>
   <sheets>
     <sheet name="validateAPIWithValidSecretKey" sheetId="1" r:id="rId1"/>
     <sheet name="validateAPIWithInvalidSecretKey" sheetId="2" r:id="rId2"/>
     <sheet name="validateCreateUserWithValidData" sheetId="4" r:id="rId3"/>
     <sheet name="validateAPIWithValidParameters" sheetId="3" r:id="rId4"/>
+    <sheet name="validateAPIWithInvalidParameter" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>email</t>
   </si>
@@ -41,12 +42,6 @@
     <t>rest2@gmail.com</t>
   </si>
   <si>
-    <t>rest3@gmail.com</t>
-  </si>
-  <si>
-    <t>rest4@gmail.com</t>
-  </si>
-  <si>
     <t>Test User as been created</t>
   </si>
   <si>
@@ -63,6 +58,12 @@
   </si>
   <si>
     <t>TestAutomation</t>
+  </si>
+  <si>
+    <t>rest1</t>
+  </si>
+  <si>
+    <t>rest2</t>
   </si>
 </sst>
 </file>
@@ -391,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -416,7 +417,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -424,31 +425,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -456,10 +439,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B5"/>
+      <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -481,7 +464,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -489,31 +472,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -523,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -534,18 +499,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -555,14 +520,94 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.7265625" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.7265625" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="rest1@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="rest2@gmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>